--- a/data/income_statement/3digits/total/243_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/243_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>243-Manufacture of other products of first processing of steel</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>243-Manufacture of other products of first processing of steel</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2319684.38267</v>
@@ -956,37 +862,42 @@
         <v>3034788.25291</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4363058.31259</v>
+        <v>4363058.312589999</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>4601001.55434</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5148446.338909999</v>
+        <v>5150285.10063</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6196881.012859999</v>
+        <v>6196881.012859998</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7100419.31099</v>
+        <v>7119242.053290001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7115420.851550001</v>
+        <v>7115420.85155</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>10530795.92344</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>15445059.94091</v>
+        <v>15449790.05285</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>16544302.35922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16574575.34201</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>16772416.557</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1982159.95819</v>
@@ -1001,13 +912,13 @@
         <v>3997918.42569</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4436347.30887</v>
+        <v>4438184.66153</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>5344581.1157</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6160949.63238</v>
+        <v>6179772.374679999</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>6154174.78945</v>
@@ -1016,22 +927,27 @@
         <v>8947514.610719999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>12565770.44695</v>
+        <v>12570500.55889</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13234071.25754</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13258293.18034</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12951670.006</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>299262.81573</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>430182.0903099999</v>
+        <v>430182.09031</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>553285.48987</v>
@@ -1043,13 +959,13 @@
         <v>641195.83928</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>742238.1799199999</v>
+        <v>742238.17992</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>730622.08202</v>
+        <v>730622.0820200001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>810376.43765</v>
+        <v>810376.4376500001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1395398.63653</v>
@@ -1058,13 +974,18 @@
         <v>2535115.62422</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2867153.023839999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2869347.42095</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3320464.53</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>38261.60875</v>
@@ -1076,10 +997,10 @@
         <v>71270.09894</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>71403.11677000001</v>
+        <v>71403.11676999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>70903.19076000001</v>
+        <v>70904.59981999999</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>110061.71724</v>
@@ -1094,16 +1015,21 @@
         <v>187882.67619</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>344173.8697399999</v>
+        <v>344173.86974</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>443078.07784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>446934.74072</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>500282.021</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>27090.19296</v>
@@ -1115,16 +1041,16 @@
         <v>32285.46644</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>31853.66076999999</v>
+        <v>31853.66077</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>41011.15794</v>
+        <v>41031.98099</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>51163.76931999999</v>
+        <v>51163.76932</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>61542.3414</v>
+        <v>62017.95183999999</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>50088.90141</v>
@@ -1136,13 +1062,18 @@
         <v>130592.10047</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>122339.58641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>122562.26498</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>117523.081</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>18936.50242</v>
@@ -1157,31 +1088,36 @@
         <v>17556.75592</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>25082.14841</v>
+        <v>25101.18131</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>26943.51526</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>33685.58076</v>
+        <v>34161.19119999999</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>27734.61965</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>46490.77889</v>
+        <v>46490.77888999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>73395.49986</v>
+        <v>73395.49986000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>81678.37829000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>81896.25009</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>86511.022</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4212.01962</v>
@@ -1196,7 +1132,7 @@
         <v>5496.54254</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>8645.40617</v>
+        <v>8645.406170000002</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>14970.81767</v>
@@ -1205,7 +1141,7 @@
         <v>11387.71721</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>7571.381130000001</v>
+        <v>7571.38113</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>15187.09008</v>
@@ -1214,13 +1150,18 @@
         <v>27594.91936</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>20175.36274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>20175.36275</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>26779.518</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>3941.67092</v>
@@ -1229,16 +1170,16 @@
         <v>8899.66433</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>8445.048770000001</v>
+        <v>8445.048769999999</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>8800.362309999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>7283.603359999999</v>
+        <v>7285.39351</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>9249.436390000001</v>
+        <v>9249.436389999999</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>16469.04343</v>
@@ -1253,13 +1194,18 @@
         <v>29601.68125</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>20485.84538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>20490.65214</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4232.541</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2292594.18971</v>
@@ -1274,31 +1220,36 @@
         <v>4569147.893569999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5107435.18097</v>
+        <v>5109253.119639999</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>6145717.24354</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7038876.969589999</v>
+        <v>7057224.10145</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7065331.95014</v>
+        <v>7065331.950139999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>10457777.11768</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>15314467.84044</v>
+        <v>15319197.95238</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>16421962.77281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16452013.07703</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>16654893.476</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2080124.39662</v>
@@ -1313,31 +1264,36 @@
         <v>4230680.76439</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4672814.132739999</v>
+        <v>4674640.77484</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>5579689.91454</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6357186.361059999</v>
+        <v>6371485.68276</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6350955.774719998</v>
+        <v>6350955.77472</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>9341823.7465</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>13296856.56426</v>
+        <v>13301541.82826</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>14846407.82203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14869389.61318</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>14030252.408</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1819102.21232</v>
@@ -1349,34 +1305,39 @@
         <v>3225968.63058</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3394405.232110001</v>
+        <v>3394405.23211</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3811828.022360001</v>
+        <v>3812768.1631</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>4559333.049</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5051526.68734</v>
+        <v>5065826.00904</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>5209495.69124</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>7632071.887809999</v>
+        <v>7632071.88781</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>11071531.13988</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>12567080.11081</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>12589039.12513</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>12190830.637</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>222294.70936</v>
@@ -1391,7 +1352,7 @@
         <v>768079.4217599999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>779853.8270699999</v>
+        <v>780740.3284300001</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>971608.5499699999</v>
@@ -1406,16 +1367,21 @@
         <v>1570686.12949</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2056787.43048</v>
+        <v>2061239.7938</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2184763.89135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2185647.48134</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1322522.815</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>30987.75575</v>
@@ -1436,25 +1402,30 @@
         <v>31312.81236</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>71652.38842999999</v>
+        <v>71652.38843000001</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>52308.3417</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>55618.10368</v>
+        <v>55618.10368000001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>137237.44577</v>
+        <v>137470.34645</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>51142.36392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>51243.46615</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>191731.153</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>7739.719190000001</v>
@@ -1487,13 +1458,18 @@
         <v>31300.54813</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>43421.45595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>43459.54056</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>325167.803</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>212469.79309</v>
@@ -1505,34 +1481,39 @@
         <v>444429.52985</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>338467.1291799999</v>
+        <v>338467.12918</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>434621.04823</v>
+        <v>434612.3448</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>566027.329</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>681690.6085300001</v>
+        <v>685738.4186900001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>714376.17542</v>
+        <v>714376.1754200001</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1115953.37118</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2017611.27618</v>
+        <v>2017656.12412</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1575554.95078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1582623.46385</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2624641.068</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>124964.08526</v>
@@ -1547,31 +1528,36 @@
         <v>214159.59245</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>228302.97132</v>
+        <v>228532.27276</v>
       </c>
       <c r="H20" s="47" t="n">
         <v>265041.22692</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>290249.60439</v>
+        <v>291510.82394</v>
       </c>
       <c r="J20" s="47" t="n">
         <v>319081.85556</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>389857.81438</v>
+        <v>389857.8143800001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>553551.9135199999</v>
+        <v>559914.3897300001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>675547.6177599999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>678882.37627</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>804315.367</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>120.83303</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>4742.6811</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>5525.737</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>53296.29351</v>
@@ -1619,19 +1610,19 @@
         <v>73989.83498999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>86339.77745000001</v>
+        <v>86339.77745000002</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>98805.24164000002</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>103495.01646</v>
+        <v>103509.26305</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>118945.23066</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>135361.92121</v>
+        <v>135910.31667</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>143990.49115</v>
@@ -1643,13 +1634,18 @@
         <v>271634.96055</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>354920.88831</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>355813.3941</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>434844.54</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>71546.95872</v>
@@ -1664,13 +1660,13 @@
         <v>114223.91643</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>123643.18588</v>
+        <v>123858.24073</v>
       </c>
       <c r="H23" s="48" t="n">
         <v>144441.6189</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>153808.46534</v>
+        <v>154521.28943</v>
       </c>
       <c r="J23" s="48" t="n">
         <v>172709.32425</v>
@@ -1679,19 +1675,24 @@
         <v>197937.59819</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>278494.42787</v>
+        <v>284856.90408</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>315884.04835</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>318326.30107</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>363945.09</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>87505.70783</v>
+        <v>87505.70782999998</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>128344.94799</v>
@@ -1703,31 +1704,36 @@
         <v>124307.53673</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>206318.07691</v>
+        <v>206080.07204</v>
       </c>
       <c r="H24" s="47" t="n">
         <v>300986.10208</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>391441.00414</v>
+        <v>394227.59475</v>
       </c>
       <c r="J24" s="47" t="n">
         <v>395294.31986</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>726095.5568</v>
+        <v>726095.5567999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1464059.36266</v>
+        <v>1457741.73439</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>900007.33302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>903741.0875800001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1820325.701</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>156840.27075</v>
@@ -1742,31 +1748,36 @@
         <v>211595.85786</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>310772.11287</v>
+        <v>311150.34372</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>445337.0132900001</v>
+        <v>445337.01329</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>735207.6790799999</v>
+        <v>735614.89336</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>664299.0009</v>
+        <v>664299.0009000001</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1249358.82205</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3731895.65056</v>
+        <v>3733342.83326</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1585135.51458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1585679.81588</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1424805.823</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>13.27021</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>3244.59384</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,20 +1856,25 @@
       <c r="M27" s="48" t="n">
         <v>105156.69967</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>16303.289</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>8010.073749999999</v>
+        <v>8010.07375</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>5920.93613</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7757.644010000001</v>
+        <v>7757.64401</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>11236.41684</v>
@@ -1865,7 +1886,7 @@
         <v>12335.3244</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>22900.82757</v>
+        <v>22923.68884</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>26364.47159</v>
@@ -1877,13 +1898,18 @@
         <v>65841.23248999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>77913.97792</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>77937.89573</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>31040.138</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>39.16166</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>583.48433</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2594.688</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>6861.405930000001</v>
@@ -1943,7 +1974,7 @@
         <v>757.15539</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>756.84249</v>
+        <v>758.1406899999999</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>2348.5028</v>
@@ -1955,13 +1986,18 @@
         <v>2929.9481</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3496.30359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3874.13611</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>12523.544</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>9143.40415</v>
@@ -1994,13 +2030,18 @@
         <v>9211.656570000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>610.99013</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>613.7453</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2139.447</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>133652.45386</v>
@@ -2015,13 +2056,13 @@
         <v>182096.37214</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>288111.3328499999</v>
+        <v>288111.48781</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>411461.08741</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>643536.7209700001</v>
+        <v>643919.77578</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>584399.8606499999</v>
@@ -2030,16 +2071,21 @@
         <v>1049060.45018</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3530919.92208</v>
+        <v>3532366.60124</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1304607.80105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1304744.7493</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1348488.995</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>320.12475</v>
@@ -2057,7 +2103,7 @@
         <v>2988.75156</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>5894.55457</v>
+        <v>5894.554569999999</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>4865.9617</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>13192.86238</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>13266.521</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>314.12418</v>
@@ -2093,7 +2144,7 @@
         <v>35.23179</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>0</v>
+        <v>378.07589</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>460.84886</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>519.74861</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>-1513.74774</v>
@@ -2126,7 +2182,7 @@
         <v>5601.35864</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>-4169.412809999999</v>
+        <v>-4169.41281</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>14219.56541</v>
@@ -2141,22 +2197,27 @@
         <v>33951.81509</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>38842.37171000001</v>
+        <v>38842.37171</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>52527.78726</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>30563.16773</v>
+        <v>30563.67127</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>75809.05306000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>75811.90061</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>-1556.169</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>163468.4356</v>
@@ -2165,37 +2226,42 @@
         <v>129187.01286</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>303668.37529</v>
+        <v>303668.3752899999</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>177315.3356</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>330918.8699</v>
+        <v>330918.88612</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>469959.69416</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>763981.9481800001</v>
+        <v>764007.5042300002</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>703356.8186600001</v>
+        <v>703356.81866</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1176317.22971</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3907270.59668</v>
+        <v>3911092.85038</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1508560.68229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1511975.20525</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1627202.528</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>801.59328</v>
@@ -2204,10 +2270,10 @@
         <v>920.17164</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>7338.728890000001</v>
+        <v>7338.72889</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>851.1974799999998</v>
+        <v>851.1974799999999</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>1179.06443</v>
@@ -2216,7 +2282,7 @@
         <v>1551.99063</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2252.85348</v>
+        <v>2252.853480000001</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1363.23829</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>17946.72407</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>10116.477</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>6221.34412</v>
@@ -2243,7 +2314,7 @@
         <v>3992.092979999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>4627.13602</v>
+        <v>4627.136020000001</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>9353.767300000001</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>37908.56907</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>19730.641</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>5453.5996</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1289.12861</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>233.504</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>147699.6558</v>
@@ -2321,19 +2402,19 @@
         <v>119454.63194</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>286304.61621</v>
+        <v>286304.6162100001</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>154256.36322</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>314453.68942</v>
+        <v>314453.70564</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>441591.78398</v>
+        <v>441591.7839799999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>729588.6601599999</v>
+        <v>729614.21621</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>661082.66761</v>
@@ -2342,16 +2423,21 @@
         <v>1114509.09183</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3790650.16713</v>
+        <v>3794472.42083</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1389298.33038</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1389401.90194</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1558237.572</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>435.32084</v>
@@ -2369,7 +2455,7 @@
         <v>4291.35349</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>5582.83472</v>
+        <v>5582.834720000001</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>5711.8557</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>13389.11577</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>21372.954</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>228.364</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>2856.92196</v>
@@ -2447,7 +2543,7 @@
         <v>3187.05452</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>9252.17381</v>
+        <v>9252.173809999998</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>15478.27699</v>
@@ -2456,22 +2552,27 @@
         <v>19615.699</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>35529.82941999999</v>
+        <v>35529.82942</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>18219.30686</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>48728.81439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>52039.76579</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>17283.016</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>37061.52141</v>
+        <v>37061.52140999999</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>28549.41977</v>
@@ -2480,16 +2581,16 @@
         <v>73928.95301000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>65210.64975999999</v>
+        <v>65210.64976000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>106206.1136</v>
+        <v>106266.32977</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>114188.19341</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>190993.8709</v>
+        <v>192159.00293</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>143205.13975</v>
@@ -2498,16 +2599,21 @@
         <v>226159.71465</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>609459.7869300001</v>
+        <v>609466.23918</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>434717.02267</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>434801.52086</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>394632.06</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>36118.68325</v>
@@ -2522,13 +2628,13 @@
         <v>62091.80018</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>102443.6657</v>
+        <v>102503.88187</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>112876.10954</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>188389.68044</v>
+        <v>189554.81247</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>141355.19479</v>
@@ -2537,16 +2643,21 @@
         <v>213239.8641</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>532532.08808</v>
+        <v>532538.54033</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>396479.12648</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>396563.62467</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>324914.514</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>942.83816</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>38237.89619000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>69717.546</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>43816.02156999999</v>
@@ -2600,13 +2716,13 @@
         <v>93377.40922999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>79965.20628</v>
+        <v>80045.19987</v>
       </c>
       <c r="H47" s="47" t="n">
         <v>162175.2278</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>171672.86414</v>
+        <v>173675.98095</v>
       </c>
       <c r="J47" s="47" t="n">
         <v>213031.36235</v>
@@ -2615,37 +2731,42 @@
         <v>572977.43449</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>679224.6296100001</v>
+        <v>670525.4780899999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>541865.14264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>542644.17735</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1223296.936</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>9474.416060000003</v>
+        <v>9474.41606</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4515.29354</v>
+        <v>4515.293540000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>6670.880039999999</v>
+        <v>6670.880040000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>7834.172799999998</v>
+        <v>7834.172799999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>10253.558</v>
+        <v>10299.8418</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>12623.262</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>19907.03711</v>
+        <v>19907.77844</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>26227.83839</v>
@@ -2654,16 +2775,21 @@
         <v>21167.14503</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>33284.82028</v>
+        <v>33310.9615</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>59114.7154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>59307.811</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>77365.768</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4834.2694</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1839.64565</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>699.975</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>4640.14666</v>
@@ -2714,16 +2845,16 @@
         <v>6668.57025</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>7787.18143</v>
+        <v>7787.181430000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8872.193310000001</v>
+        <v>8918.47711</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>12334.30559</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>18370.32777</v>
+        <v>18371.0691</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>26197.75416</v>
@@ -2732,19 +2863,24 @@
         <v>21097.93544</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>33063.64592</v>
+        <v>33089.78714</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>57275.06975000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>57468.16535</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>76665.79300000001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>5429.719990000001</v>
+        <v>5429.71999</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>2512.57605</v>
@@ -2753,34 +2889,39 @@
         <v>14935.18649</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>57370.867</v>
+        <v>57370.86700000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>15153.88502</v>
+        <v>15361.06818</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>16430.35813</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>62563.04925</v>
+        <v>62563.04924999999</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>24049.78289</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>27771.59151999999</v>
+        <v>27771.59152</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>73156.20587000001</v>
+        <v>73157.99688999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>42936.49634000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>43041.84948</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>46685.677</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1211.45793</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>16819.87986</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>11570.053</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>355.11514</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>3396.07333</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>12798.695</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>3863.14692</v>
@@ -2873,7 +3024,7 @@
         <v>56858.37123</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>12442.61944</v>
+        <v>12649.8026</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>13928.83083</v>
@@ -2888,19 +3039,24 @@
         <v>15460.00441</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>53016.94409</v>
+        <v>53018.73511</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>22720.54315</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>22825.89629</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>22316.929</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>47860.71764</v>
+        <v>47860.71764000001</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>107451.72592</v>
@@ -2912,31 +3068,36 @@
         <v>43840.71503</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>75064.87926</v>
+        <v>74983.97348999999</v>
       </c>
       <c r="H55" s="47" t="n">
         <v>158368.13167</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>129016.852</v>
+        <v>131020.71014</v>
       </c>
       <c r="J55" s="47" t="n">
         <v>215209.41785</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>566372.988</v>
+        <v>566372.9879999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>639353.24402</v>
+        <v>630678.4426999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>558043.3616999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>558910.13887</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1253977.027</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>9232.22271</v>
@@ -2960,22 +3121,27 @@
         <v>38644.29303</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>51033.99226000001</v>
+        <v>51033.99226</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>95845.72173999998</v>
+        <v>95845.72173999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>150100.52173</v>
+        <v>150105.07646</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>113384.7459</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>115637.88885</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>213806.286</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>38628.49493</v>
@@ -2990,13 +3156,13 @@
         <v>19899.31707</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>44289.08020999999</v>
+        <v>44208.17444</v>
       </c>
       <c r="H57" s="47" t="n">
         <v>122791.06075</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>90372.55897</v>
+        <v>92376.41710999999</v>
       </c>
       <c r="J57" s="47" t="n">
         <v>164175.42559</v>
@@ -3005,13 +3171,16 @@
         <v>470527.26626</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>489252.72229</v>
+        <v>480573.36624</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>444658.6158000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>443272.25002</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1040170.741</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>123</v>
@@ -3044,13 +3216,13 @@
         <v>133</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>149</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J59" s="35" t="n">
         <v>155</v>
@@ -3059,13 +3231,16 @@
         <v>158</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>201</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>